--- a/assets/files/CV3.xlsx
+++ b/assets/files/CV3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,1997 +626,1997 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>24.120603015075378</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>52.763819095477388</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>10.050251256281408</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>11.557788944723619</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>1.5075376884422111</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>21.164021164021165</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>58.730158730158728</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>15.873015873015873</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>4.2328042328042326</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>22.680412371134022</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>55.670103092783506</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>12.88659793814433</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>7.9896907216494846</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>0.77319587628865982</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>43.145161290322584</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>30.64516129032258</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>6.4516129032258061</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>18.14516129032258</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>1.6129032258064515</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>248</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>39.344262295081968</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>37.704918032786885</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>17.21311475409836</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>4.0983606557377046</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>1.639344262295082</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>122</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>41.891891891891895</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>32.972972972972975</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>10</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>13.513513513513514</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>1.6216216216216217</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>22.857142857142858</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>43.07692307692308</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>19.12087912087912</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>13.186813186813186</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>1.7582417582417582</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>455</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>19.4331983805668</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>52.226720647773277</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>14.574898785425102</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>12.955465587044534</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>0.80971659919028338</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>247</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>21.652421652421651</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>46.296296296296298</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>17.521367521367523</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>13.105413105413106</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>1.4245014245014245</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>702</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>40.506329113924053</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>41.77215189873418</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>15.189873417721518</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>2.5316455696202533</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>28.776978417266186</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>51.079136690647481</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>15.827338129496402</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>4.3165467625899279</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>31.372549019607842</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>49.019607843137258</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>15.686274509803921</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>3.9215686274509802</v>
       </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>45.405405405405403</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>22.162162162162161</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>9.7297297297297298</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>2.7027027027027026</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>185</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>23.148148148148149</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>47.222222222222221</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>20.37037037037037</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>6.4814814814814818</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>2.7777777777777777</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>108</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>21.160409556313994</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>46.075085324232084</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>21.501706484641637</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>8.5324232081911262</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>2.7303754266211606</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>17.948717948717949</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>50.256410256410255</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>16.410256410256409</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>11.794871794871796</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>3.5897435897435899</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>11.267605633802816</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>59.154929577464792</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>20.657276995305164</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>3.2863849765258215</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>5.6338028169014081</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>14.46078431372549</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>54.901960784313722</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>18.627450980392158</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>7.3529411764705879</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>4.6568627450980395</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>16.279069767441861</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>18.604651162790699</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>4.6511627906976747</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>60.465116279069768</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>24.770642201834864</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>35.474006116207953</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>12.538226299694189</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>27.217125382262996</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>23.783783783783782</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>33.513513513513516</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>11.621621621621621</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>31.081081081081081</v>
       </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>26.229508196721312</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>48.770491803278688</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>9.8360655737704921</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>14.344262295081966</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>0.81967213114754101</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>244</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>28.057553956834532</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>41.726618705035975</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>12.949640287769784</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>16.546762589928058</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>0.71942446043165464</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>26.892950391644909</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>46.214099216710181</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>10.966057441253264</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>15.143603133159269</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>0.78328981723237601</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>34.482758620689658</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>59.770114942528735</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>2.2988505747126435</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>34.163701067615655</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>46.619217081850536</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>6.7615658362989324</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>11.743772241992882</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>0.71174377224199292</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>34.239130434782609</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>49.728260869565219</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>5.7065217391304346</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>9.7826086956521738</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>0.54347826086956519</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>14.572864321608041</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>43.718592964824118</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>11.055276381909549</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>30.653266331658291</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>199</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>7.1823204419889501</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>36.464088397790057</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>53.591160220994475</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>2.7624309392265194</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>181</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>11.052631578947368</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>40.263157894736842</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>31.315789473684209</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>17.368421052631579</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>51.327433628318587</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>19.469026548672566</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>29.20353982300885</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>14.285714285714286</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>63.636363636363633</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>16.883116883116884</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>5.1948051948051948</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>36.315789473684212</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>37.368421052631582</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>6.8421052631578947</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>19.473684210526315</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>31.578947368421051</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>31.140350877192983</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>9.2105263157894743</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>23.245614035087719</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>4.8245614035087723</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>228</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>20.90909090909091</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>45.454545454545453</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>21.818181818181817</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>2.7272727272727271</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>110</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>28.106508875739646</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>35.798816568047336</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>13.31360946745562</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>18.639053254437869</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>4.1420118343195265</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>25.203252032520325</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>31.707317073170731</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>12.195121951219512</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>30.081300813008131</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>0.81300813008130079</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>29.880478087649401</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>29.083665338645417</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>8.764940239043824</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>30.677290836653388</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>1.593625498007968</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>28.342245989304814</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>29.946524064171122</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>9.8930481283422456</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>30.481283422459892</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>1.3368983957219251</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>52.083333333333336</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>37.5</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>6.25</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>47.761194029850749</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>44.776119402985074</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>5.0746268656716422</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>2.3880597014925371</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <v>335</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>48.302872062663184</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>43.864229765013057</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>4.6997389033942563</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>2.8720626631853787</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>0.26109660574412535</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>8</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>60.666666666666664</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>28.666666666666668</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>2.6666666666666665</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>14.830508474576272</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>52.542372881355931</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>32.627118644067799</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>12.176165803108809</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>55.699481865284973</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>31.088082901554404</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>1.0362694300518134</v>
       </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>25.721784776902886</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>29.658792650918635</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>14.698162729658792</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>29.133858267716537</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>0.78740157480314965</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>381</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>25.721784776902886</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>29.658792650918635</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>14.698162729658792</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>29.133858267716537</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>0.78740157480314965</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>31.578947368421051</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>23.684210526315791</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>13.157894736842104</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>26.315789473684209</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>38</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>33.529411764705884</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>43.529411764705884</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>4.7058823529411766</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>16.470588235294116</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>1.7647058823529411</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>340</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>41.534391534391531</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>5.5555555555555554</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>17.460317460317459</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>2.1164021164021163</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>39.655172413793103</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>54.022988505747129</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>4.0229885057471266</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>30.05464480874317</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>52.459016393442624</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>16.393442622950818</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>1.0928961748633881</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>34.733893557422967</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>53.221288515406165</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>10.364145658263306</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>1.1204481792717087</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>0.56022408963585435</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>54.545454545454547</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>12.121212121212121</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>21.212121212121211</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>3.0303030303030303</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>48.360655737704917</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>23.770491803278688</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>3.5519125683060109</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>22.404371584699454</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>1.9125683060109289</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>366</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>48.872180451127818</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>22.807017543859651</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>4.0100250626566414</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>22.305764411027567</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>2.0050125313283207</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>25.615763546798028</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>46.305418719211822</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>12.315270935960591</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>14.285714285714286</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>1.4778325123152709</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>27.777777777777779</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>43.888888888888886</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>15</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>12.222222222222221</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>1.1111111111111112</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>26.631853785900784</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>45.16971279373368</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>13.577023498694517</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>13.315926892950392</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>1.3054830287206267</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>22.543352601156069</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>38.728323699421964</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>16.76300578034682</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>20.809248554913296</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>1.1560693641618498</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>22.439024390243901</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>39.024390243902438</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>15.609756097560975</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>21.951219512195124</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>0.97560975609756095</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>22.486772486772487</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>38.888888888888886</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>16.137566137566136</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>21.428571428571427</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>1.0582010582010581</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>24.468085106382979</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>31.914893617021278</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>11.170212765957446</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>30.319148936170212</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>2.1276595744680851</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>26.153846153846153</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>46.666666666666664</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>12.307692307692308</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>1.5384615384615385</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>25.326370757180158</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>39.425587467362924</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>11.74934725848564</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>21.671018276762403</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>1.8276762402088773</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>4.7021943573667713</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>5.3291536050156738</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>1.2539184952978057</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>88.4012539184953</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>0.31347962382445144</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>319</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>27.419354838709676</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>54.838709677419352</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>3.225806451612903</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>12.903225806451612</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>1.6129032258064515</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>8.3989501312335957</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>13.385826771653543</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>1.5748031496062993</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>76.115485564304464</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>0.52493438320209973</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>31.382978723404257</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>38.297872340425535</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>9.5744680851063837</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>20.212765957446809</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>0.53191489361702127</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>188</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>15.183246073298429</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>38.219895287958117</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>19.3717277486911</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>26.178010471204189</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>1.0471204188481675</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>191</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>23.218997361477573</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>38.258575197889179</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>14.511873350923484</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>23.218997361477573</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>0.79155672823218992</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>21.565217391304348</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>64.869565217391298</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>8.5217391304347831</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>3.8260869565217392</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>1.2173913043478262</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>575</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>30.60921248142645</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>38.038632986627043</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>19.316493313521544</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>10.99554234769688</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>1.0401188707280833</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1346</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>27.902134305049454</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>46.069755335762622</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>16.085372201978135</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>8.8495575221238933</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>1.0931806350858928</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1921</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>32.352941176470587</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>58.823529411764703</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>5.882352941176471</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>2.9411764705882355</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>136</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>19.318181818181817</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>60.984848484848484</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>8.7121212121212128</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>9.8484848484848477</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>1.1363636363636365</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>528</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>21.987951807228917</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>60.542168674698793</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>8.1325301204819276</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>8.4337349397590362</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>0.90361445783132532</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>664</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>32.835820895522389</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>38.805970149253731</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>11.194029850746269</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>16.417910447761194</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>0.74626865671641796</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>134</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>30.851063829787233</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>42.021276595744681</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>11.170212765957446</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>14.361702127659575</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>1.5957446808510638</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>188</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>31.677018633540374</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>40.683229813664596</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>11.180124223602485</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>15.217391304347826</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>1.2422360248447204</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>31.277533039647576</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>39.647577092511014</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>8.3700440528634363</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>19.823788546255507</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>0.88105726872246692</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>227</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>18.032786885245901</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>51.639344262295083</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>13.114754098360656</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>16.393442622950818</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>0.81967213114754101</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>26.647564469914041</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>43.839541547277939</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>10.02865329512894</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>18.624641833810887</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>0.85959885386819479</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>36.12903225806452</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>34.193548387096776</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>7.096774193548387</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>22.580645161290324</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>38.362068965517238</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>30.603448275862068</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>9.4827586206896548</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>20.258620689655171</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>1.2931034482758621</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>37.467700258397933</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>32.041343669250644</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>8.5271317829457356</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>21.188630490956072</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>0.77519379844961245</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>28.828828828828829</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>51.351351351351354</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>11.711711711711711</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>7.2072072072072073</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>0.90090090090090091</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>28.308823529411764</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>38.970588235294116</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>9.1911764705882355</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>22.058823529411764</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>1.4705882352941178</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>28.459530026109661</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>42.558746736292427</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>9.9216710182767631</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>17.754569190600524</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>1.3054830287206267</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>26.666666666666668</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>26.666666666666668</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>26.666666666666668</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>20</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>21.329639889196677</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>47.922437673130197</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>17.72853185595568</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>12.465373961218837</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>0.554016620498615</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>361</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>21.542553191489361</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>47.074468085106382</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>18.085106382978722</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>12.76595744680851</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>0.53191489361702127</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>376</v>
       </c>
     </row>
